--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Raw SNV calls</t>
+  </si>
+  <si>
+    <t>CNV</t>
+  </si>
+  <si>
+    <t>Raw CNV calls</t>
   </si>
   <si>
     <t>QC</t>
@@ -479,7 +485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +544,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +552,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -560,13 +566,27 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="D6" t="s" s="2">
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>53</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:10:33+00:00</t>
+    <t>2022-05-18T17:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -132,55 +132,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>AR</t>
+    <t>ALIR</t>
   </si>
   <si>
     <t>Aligned Reads</t>
   </si>
   <si>
-    <t>Aligned reads</t>
-  </si>
-  <si>
     <t>SNV</t>
   </si>
   <si>
-    <t>Raw SNV Calls</t>
-  </si>
-  <si>
-    <t>Raw SNV calls</t>
-  </si>
-  <si>
-    <t>CNV</t>
-  </si>
-  <si>
-    <t>Raw CNV calls</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>QC Report</t>
-  </si>
-  <si>
-    <t>QC report</t>
-  </si>
-  <si>
-    <t>INDEX</t>
+    <t>GCNV</t>
+  </si>
+  <si>
+    <t>Germline CNV</t>
+  </si>
+  <si>
+    <t>SSUP</t>
+  </si>
+  <si>
+    <t>Sequencing Data Supplement</t>
+  </si>
+  <si>
+    <t>INDX</t>
   </si>
   <si>
     <t>Sequencing Data Index</t>
-  </si>
-  <si>
-    <t>Sequencing data index</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Consent Form</t>
-  </si>
-  <si>
-    <t>Consent form</t>
   </si>
 </sst>
 </file>
@@ -485,7 +461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -515,79 +491,55 @@
       <c r="C2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Germline CNV</t>
+  </si>
+  <si>
+    <t>GSV</t>
+  </si>
+  <si>
+    <t>Germline SV</t>
   </si>
   <si>
     <t>SSUP</t>
@@ -461,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,6 +547,18 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T21:34:05+00:00</t>
+    <t>2023-01-23T16:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Sequencing Data Index</t>
+  </si>
+  <si>
+    <t>EXOR</t>
+  </si>
+  <si>
+    <t>Exomiser Report</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +565,18 @@
       </c>
       <c r="D7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Exomiser Report</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Undefined Data Type</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,6 +583,18 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,10 +165,10 @@
     <t>Sequencing Data Index</t>
   </si>
   <si>
-    <t>EXOR</t>
-  </si>
-  <si>
-    <t>Exomiser Report</t>
+    <t>REPORT</t>
+  </si>
+  <si>
+    <t>Data Report</t>
   </si>
   <si>
     <t>OTHER</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,16 +165,40 @@
     <t>Sequencing Data Index</t>
   </si>
   <si>
-    <t>REPORT</t>
-  </si>
-  <si>
-    <t>Data Report</t>
+    <t>EXOMIZER</t>
+  </si>
+  <si>
+    <t>Exomizer Report</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>IGV Track</t>
+  </si>
+  <si>
+    <t>CNVVIZ</t>
+  </si>
+  <si>
+    <t>CNV Visualization</t>
+  </si>
+  <si>
+    <t>COVGENE</t>
+  </si>
+  <si>
+    <t>Coverage by Gene Report</t>
   </si>
   <si>
     <t>OTHER</t>
   </si>
   <si>
     <t>Undefined Data Type</t>
+  </si>
+  <si>
+    <t>FUSG</t>
+  </si>
+  <si>
+    <t>Gene fusion</t>
   </si>
 </sst>
 </file>
@@ -479,7 +503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,6 +619,54 @@
       </c>
       <c r="D9" s="2"/>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -177,7 +177,7 @@
     <t>IGV Track</t>
   </si>
   <si>
-    <t>CNVVIZ</t>
+    <t>CNVVIS</t>
   </si>
   <si>
     <t>CNV Visualization</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Undefined Data Type</t>
+  </si>
+  <si>
+    <t>QCRUN</t>
+  </si>
+  <si>
+    <t>Sequencing Run QC Report</t>
   </si>
   <si>
     <t>FUSG</t>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -667,6 +673,18 @@
       </c>
       <c r="D13" s="2"/>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,10 +165,10 @@
     <t>Sequencing Data Index</t>
   </si>
   <si>
-    <t>EXOMIZER</t>
-  </si>
-  <si>
-    <t>Exomizer Report</t>
+    <t>EXOMISER</t>
+  </si>
+  <si>
+    <t>Exomiser Report</t>
   </si>
   <si>
     <t>IGV</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -326,10 +326,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,16 +141,37 @@
     <t>SNV</t>
   </si>
   <si>
+    <t>Germline SNV</t>
+  </si>
+  <si>
+    <t>SSNV</t>
+  </si>
+  <si>
+    <t>Somatic SNV</t>
+  </si>
+  <si>
     <t>GCNV</t>
   </si>
   <si>
     <t>Germline CNV</t>
   </si>
   <si>
+    <t>SCNV</t>
+  </si>
+  <si>
+    <t>Somatic CNV</t>
+  </si>
+  <si>
     <t>GSV</t>
   </si>
   <si>
     <t>Germline SV</t>
+  </si>
+  <si>
+    <t>SSV</t>
+  </si>
+  <si>
+    <t>Somatic SV</t>
   </si>
   <si>
     <t>SSUP</t>
@@ -509,7 +530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +570,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -558,10 +579,10 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -570,10 +591,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -582,10 +603,10 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -594,10 +615,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -606,10 +627,10 @@
         <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -618,10 +639,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -630,10 +651,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -642,10 +663,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -654,10 +675,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -666,10 +687,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -678,12 +699,48 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-data-type.xlsx
+++ b/ig/CodeSystem-data-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
